--- a/downloaded_files/MDPS261_Tutorial-35520.xlsx
+++ b/downloaded_files/MDPS261_Tutorial-35520.xlsx
@@ -228,15 +228,6 @@
     <x:t>kareem sameh sabry mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم عصام محمد عادل محمد الزيات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KARIM ELZIAT</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230083</x:t>
   </x:si>
   <x:si>
@@ -244,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Kenzie Ahmed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240353</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">مايا  شريف عبداللطيف محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maya Sherif Abdellatif Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240355</x:t>
@@ -1632,7 +1632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45912.0356972222</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1664,7 +1664,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.0356972222</x:v>
+        <x:v>45922.3378356829</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2327,11 +2327,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(14:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(14:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Stress Analysis (MDPS261) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MDPS261_Tutorial-35520.xlsx
+++ b/downloaded_files/MDPS261_Tutorial-35520.xlsx
@@ -192,6 +192,15 @@
     <x:t>Ali mahmoud reda Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر علاءالدين محمد الحصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240111</x:t>
   </x:si>
   <x:si>
@@ -225,7 +234,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1230083</x:t>
@@ -334,15 +343,6 @@
   </x:si>
   <x:si>
     <x:t>Nada magdy Ali Mohamed Ali Wahba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هادى عبدالعال رضا عبدالعال سلطان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hady Abdelaal Reda</x:t>
   </x:si>
   <x:si>
     <x:t>1230275</x:t>
@@ -1504,7 +1504,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45925.4148273958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1536,7 +1536,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1568,7 +1568,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1600,7 +1600,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1632,7 +1632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0356972222</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1664,7 +1664,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.3378356829</x:v>
+        <x:v>45912.0356972222</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1696,7 +1696,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45922.3378356829</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1728,7 +1728,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1760,7 +1760,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1792,7 +1792,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665660532</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1824,7 +1824,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6665660532</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1856,7 +1856,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6664172454</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1888,7 +1888,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.0349071412</x:v>
+        <x:v>45907.6664172454</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1920,7 +1920,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45912.0349071412</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1952,7 +1952,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1984,7 +1984,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.420246412</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2016,7 +2016,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45908.420246412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>

--- a/downloaded_files/MDPS261_Tutorial-35520.xlsx
+++ b/downloaded_files/MDPS261_Tutorial-35520.xlsx
@@ -333,7 +333,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>1240383</x:t>
